--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_93.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_93.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d235430-Reviews-BLVD_Hotel_Suites-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>656</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-BLVD-Hotel-Suites.h863414.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_93.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_93.xlsx
@@ -8584,7 +8584,7 @@
         <v>20521</v>
       </c>
       <c r="B2" t="n">
-        <v>129875</v>
+        <v>160582</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -8649,7 +8649,7 @@
         <v>20521</v>
       </c>
       <c r="B3" t="n">
-        <v>129876</v>
+        <v>160583</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -8714,7 +8714,7 @@
         <v>20521</v>
       </c>
       <c r="B4" t="n">
-        <v>129877</v>
+        <v>160584</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -8779,7 +8779,7 @@
         <v>20521</v>
       </c>
       <c r="B5" t="n">
-        <v>129878</v>
+        <v>160585</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -8844,7 +8844,7 @@
         <v>20521</v>
       </c>
       <c r="B6" t="n">
-        <v>129879</v>
+        <v>160586</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -8909,7 +8909,7 @@
         <v>20521</v>
       </c>
       <c r="B7" t="n">
-        <v>129880</v>
+        <v>160587</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -8974,7 +8974,7 @@
         <v>20521</v>
       </c>
       <c r="B8" t="n">
-        <v>129881</v>
+        <v>160588</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -9108,7 +9108,7 @@
         <v>20521</v>
       </c>
       <c r="B10" t="n">
-        <v>129882</v>
+        <v>160589</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -9315,7 +9315,7 @@
         <v>20521</v>
       </c>
       <c r="B13" t="n">
-        <v>129883</v>
+        <v>160590</v>
       </c>
       <c r="C13" t="s">
         <v>140</v>
@@ -9384,7 +9384,7 @@
         <v>20521</v>
       </c>
       <c r="B14" t="n">
-        <v>129884</v>
+        <v>160591</v>
       </c>
       <c r="C14" t="s">
         <v>149</v>
@@ -9449,7 +9449,7 @@
         <v>20521</v>
       </c>
       <c r="B15" t="n">
-        <v>129885</v>
+        <v>160592</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -9518,7 +9518,7 @@
         <v>20521</v>
       </c>
       <c r="B16" t="n">
-        <v>129886</v>
+        <v>160593</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -9587,7 +9587,7 @@
         <v>20521</v>
       </c>
       <c r="B17" t="n">
-        <v>129887</v>
+        <v>160594</v>
       </c>
       <c r="C17" t="s">
         <v>175</v>
@@ -9652,7 +9652,7 @@
         <v>20521</v>
       </c>
       <c r="B18" t="n">
-        <v>129888</v>
+        <v>160595</v>
       </c>
       <c r="C18" t="s">
         <v>184</v>
@@ -9721,7 +9721,7 @@
         <v>20521</v>
       </c>
       <c r="B19" t="n">
-        <v>129889</v>
+        <v>160596</v>
       </c>
       <c r="C19" t="s">
         <v>194</v>
@@ -9855,7 +9855,7 @@
         <v>20521</v>
       </c>
       <c r="B21" t="n">
-        <v>129890</v>
+        <v>160597</v>
       </c>
       <c r="C21" t="s">
         <v>210</v>
@@ -9985,7 +9985,7 @@
         <v>20521</v>
       </c>
       <c r="B23" t="n">
-        <v>129891</v>
+        <v>160598</v>
       </c>
       <c r="C23" t="s">
         <v>223</v>
@@ -10050,7 +10050,7 @@
         <v>20521</v>
       </c>
       <c r="B24" t="n">
-        <v>129892</v>
+        <v>160599</v>
       </c>
       <c r="C24" t="s">
         <v>233</v>
@@ -10186,7 +10186,7 @@
         <v>20521</v>
       </c>
       <c r="B26" t="n">
-        <v>129893</v>
+        <v>160600</v>
       </c>
       <c r="C26" t="s">
         <v>248</v>
@@ -10251,7 +10251,7 @@
         <v>20521</v>
       </c>
       <c r="B27" t="n">
-        <v>129894</v>
+        <v>160601</v>
       </c>
       <c r="C27" t="s">
         <v>257</v>
@@ -10316,7 +10316,7 @@
         <v>20521</v>
       </c>
       <c r="B28" t="n">
-        <v>129895</v>
+        <v>160602</v>
       </c>
       <c r="C28" t="s">
         <v>266</v>
@@ -10385,7 +10385,7 @@
         <v>20521</v>
       </c>
       <c r="B29" t="n">
-        <v>129896</v>
+        <v>160603</v>
       </c>
       <c r="C29" t="s">
         <v>274</v>
@@ -10525,7 +10525,7 @@
         <v>20521</v>
       </c>
       <c r="B31" t="n">
-        <v>129897</v>
+        <v>160604</v>
       </c>
       <c r="C31" t="s">
         <v>292</v>
@@ -10655,7 +10655,7 @@
         <v>20521</v>
       </c>
       <c r="B33" t="n">
-        <v>129898</v>
+        <v>160605</v>
       </c>
       <c r="C33" t="s">
         <v>308</v>
@@ -10864,7 +10864,7 @@
         <v>20521</v>
       </c>
       <c r="B36" t="n">
-        <v>129899</v>
+        <v>160606</v>
       </c>
       <c r="C36" t="s">
         <v>334</v>
@@ -10929,7 +10929,7 @@
         <v>20521</v>
       </c>
       <c r="B37" t="n">
-        <v>129900</v>
+        <v>160607</v>
       </c>
       <c r="C37" t="s">
         <v>343</v>
@@ -11000,7 +11000,7 @@
         <v>20521</v>
       </c>
       <c r="B38" t="n">
-        <v>129901</v>
+        <v>160608</v>
       </c>
       <c r="C38" t="s">
         <v>352</v>
@@ -11069,7 +11069,7 @@
         <v>20521</v>
       </c>
       <c r="B39" t="n">
-        <v>129902</v>
+        <v>160609</v>
       </c>
       <c r="C39" t="s">
         <v>361</v>
@@ -11140,7 +11140,7 @@
         <v>20521</v>
       </c>
       <c r="B40" t="n">
-        <v>129903</v>
+        <v>160610</v>
       </c>
       <c r="C40" t="s">
         <v>367</v>
@@ -11280,7 +11280,7 @@
         <v>20521</v>
       </c>
       <c r="B42" t="n">
-        <v>129904</v>
+        <v>160611</v>
       </c>
       <c r="C42" t="s">
         <v>385</v>
@@ -11554,7 +11554,7 @@
         <v>20521</v>
       </c>
       <c r="B46" t="n">
-        <v>129905</v>
+        <v>160612</v>
       </c>
       <c r="C46" t="s">
         <v>420</v>
@@ -11623,7 +11623,7 @@
         <v>20521</v>
       </c>
       <c r="B47" t="n">
-        <v>129906</v>
+        <v>160613</v>
       </c>
       <c r="C47" t="s">
         <v>426</v>
@@ -11694,7 +11694,7 @@
         <v>20521</v>
       </c>
       <c r="B48" t="n">
-        <v>129907</v>
+        <v>160614</v>
       </c>
       <c r="C48" t="s">
         <v>436</v>
@@ -11763,7 +11763,7 @@
         <v>20521</v>
       </c>
       <c r="B49" t="n">
-        <v>129908</v>
+        <v>160615</v>
       </c>
       <c r="C49" t="s">
         <v>442</v>
@@ -11828,7 +11828,7 @@
         <v>20521</v>
       </c>
       <c r="B50" t="n">
-        <v>129909</v>
+        <v>160616</v>
       </c>
       <c r="C50" t="s">
         <v>448</v>
@@ -11889,7 +11889,7 @@
         <v>20521</v>
       </c>
       <c r="B51" t="n">
-        <v>129910</v>
+        <v>160617</v>
       </c>
       <c r="C51" t="s">
         <v>457</v>
@@ -11960,7 +11960,7 @@
         <v>20521</v>
       </c>
       <c r="B52" t="n">
-        <v>129911</v>
+        <v>160618</v>
       </c>
       <c r="C52" t="s">
         <v>466</v>
@@ -12029,7 +12029,7 @@
         <v>20521</v>
       </c>
       <c r="B53" t="n">
-        <v>129912</v>
+        <v>160619</v>
       </c>
       <c r="C53" t="s">
         <v>472</v>
@@ -12094,7 +12094,7 @@
         <v>20521</v>
       </c>
       <c r="B54" t="n">
-        <v>129913</v>
+        <v>160620</v>
       </c>
       <c r="C54" t="s">
         <v>481</v>
@@ -12230,7 +12230,7 @@
         <v>20521</v>
       </c>
       <c r="B56" t="n">
-        <v>129914</v>
+        <v>160621</v>
       </c>
       <c r="C56" t="s">
         <v>495</v>
@@ -12301,7 +12301,7 @@
         <v>20521</v>
       </c>
       <c r="B57" t="n">
-        <v>129915</v>
+        <v>160622</v>
       </c>
       <c r="C57" t="s">
         <v>504</v>
@@ -12366,7 +12366,7 @@
         <v>20521</v>
       </c>
       <c r="B58" t="n">
-        <v>129916</v>
+        <v>160623</v>
       </c>
       <c r="C58" t="s">
         <v>512</v>
@@ -12435,7 +12435,7 @@
         <v>20521</v>
       </c>
       <c r="B59" t="n">
-        <v>129917</v>
+        <v>160624</v>
       </c>
       <c r="C59" t="s">
         <v>521</v>
@@ -12500,7 +12500,7 @@
         <v>20521</v>
       </c>
       <c r="B60" t="n">
-        <v>129918</v>
+        <v>160625</v>
       </c>
       <c r="C60" t="s">
         <v>530</v>
@@ -12565,7 +12565,7 @@
         <v>20521</v>
       </c>
       <c r="B61" t="n">
-        <v>129919</v>
+        <v>160626</v>
       </c>
       <c r="C61" t="s">
         <v>536</v>
@@ -12695,7 +12695,7 @@
         <v>20521</v>
       </c>
       <c r="B63" t="n">
-        <v>129920</v>
+        <v>160627</v>
       </c>
       <c r="C63" t="s">
         <v>553</v>
@@ -12890,7 +12890,7 @@
         <v>20521</v>
       </c>
       <c r="B66" t="n">
-        <v>129921</v>
+        <v>160628</v>
       </c>
       <c r="C66" t="s">
         <v>579</v>
@@ -12961,7 +12961,7 @@
         <v>20521</v>
       </c>
       <c r="B67" t="n">
-        <v>129922</v>
+        <v>160629</v>
       </c>
       <c r="C67" t="s">
         <v>585</v>
@@ -13032,7 +13032,7 @@
         <v>20521</v>
       </c>
       <c r="B68" t="n">
-        <v>129923</v>
+        <v>160630</v>
       </c>
       <c r="C68" t="s">
         <v>594</v>
@@ -13164,7 +13164,7 @@
         <v>20521</v>
       </c>
       <c r="B70" t="n">
-        <v>129924</v>
+        <v>160631</v>
       </c>
       <c r="C70" t="s">
         <v>610</v>
@@ -13233,7 +13233,7 @@
         <v>20521</v>
       </c>
       <c r="B71" t="n">
-        <v>129925</v>
+        <v>160632</v>
       </c>
       <c r="C71" t="s">
         <v>618</v>
@@ -13304,7 +13304,7 @@
         <v>20521</v>
       </c>
       <c r="B72" t="n">
-        <v>129926</v>
+        <v>160633</v>
       </c>
       <c r="C72" t="s">
         <v>625</v>
@@ -13369,7 +13369,7 @@
         <v>20521</v>
       </c>
       <c r="B73" t="n">
-        <v>129927</v>
+        <v>160634</v>
       </c>
       <c r="C73" t="s">
         <v>632</v>
@@ -13440,7 +13440,7 @@
         <v>20521</v>
       </c>
       <c r="B74" t="n">
-        <v>129928</v>
+        <v>160635</v>
       </c>
       <c r="C74" t="s">
         <v>641</v>
@@ -13574,7 +13574,7 @@
         <v>20521</v>
       </c>
       <c r="B76" t="n">
-        <v>129929</v>
+        <v>160636</v>
       </c>
       <c r="C76" t="s">
         <v>657</v>
@@ -13645,7 +13645,7 @@
         <v>20521</v>
       </c>
       <c r="B77" t="n">
-        <v>129930</v>
+        <v>160637</v>
       </c>
       <c r="C77" t="s">
         <v>663</v>
@@ -13844,7 +13844,7 @@
         <v>20521</v>
       </c>
       <c r="B80" t="n">
-        <v>129931</v>
+        <v>160638</v>
       </c>
       <c r="C80" t="s">
         <v>686</v>
@@ -13984,7 +13984,7 @@
         <v>20521</v>
       </c>
       <c r="B82" t="n">
-        <v>129932</v>
+        <v>160639</v>
       </c>
       <c r="C82" t="s">
         <v>704</v>
@@ -14055,7 +14055,7 @@
         <v>20521</v>
       </c>
       <c r="B83" t="n">
-        <v>129933</v>
+        <v>160640</v>
       </c>
       <c r="C83" t="s">
         <v>711</v>
@@ -14126,7 +14126,7 @@
         <v>20521</v>
       </c>
       <c r="B84" t="n">
-        <v>129934</v>
+        <v>160641</v>
       </c>
       <c r="C84" t="s">
         <v>718</v>
@@ -14191,7 +14191,7 @@
         <v>20521</v>
       </c>
       <c r="B85" t="n">
-        <v>129935</v>
+        <v>160642</v>
       </c>
       <c r="C85" t="s">
         <v>725</v>
@@ -14469,7 +14469,7 @@
         <v>20521</v>
       </c>
       <c r="B89" t="n">
-        <v>129936</v>
+        <v>160643</v>
       </c>
       <c r="C89" t="s">
         <v>757</v>
@@ -14538,7 +14538,7 @@
         <v>20521</v>
       </c>
       <c r="B90" t="n">
-        <v>129937</v>
+        <v>160644</v>
       </c>
       <c r="C90" t="s">
         <v>766</v>
@@ -14603,7 +14603,7 @@
         <v>20521</v>
       </c>
       <c r="B91" t="n">
-        <v>129938</v>
+        <v>160645</v>
       </c>
       <c r="C91" t="s">
         <v>774</v>
@@ -14806,7 +14806,7 @@
         <v>20521</v>
       </c>
       <c r="B94" t="n">
-        <v>129939</v>
+        <v>160646</v>
       </c>
       <c r="C94" t="s">
         <v>800</v>
@@ -14877,7 +14877,7 @@
         <v>20521</v>
       </c>
       <c r="B95" t="n">
-        <v>129940</v>
+        <v>160647</v>
       </c>
       <c r="C95" t="s">
         <v>809</v>
@@ -14948,7 +14948,7 @@
         <v>20521</v>
       </c>
       <c r="B96" t="n">
-        <v>129941</v>
+        <v>160648</v>
       </c>
       <c r="C96" t="s">
         <v>818</v>
@@ -15019,7 +15019,7 @@
         <v>20521</v>
       </c>
       <c r="B97" t="n">
-        <v>129942</v>
+        <v>160649</v>
       </c>
       <c r="C97" t="s">
         <v>825</v>
@@ -15157,7 +15157,7 @@
         <v>20521</v>
       </c>
       <c r="B99" t="n">
-        <v>129943</v>
+        <v>160650</v>
       </c>
       <c r="C99" t="s">
         <v>843</v>
@@ -15226,7 +15226,7 @@
         <v>20521</v>
       </c>
       <c r="B100" t="n">
-        <v>129944</v>
+        <v>160651</v>
       </c>
       <c r="C100" t="s">
         <v>850</v>
@@ -15291,7 +15291,7 @@
         <v>20521</v>
       </c>
       <c r="B101" t="n">
-        <v>129945</v>
+        <v>160652</v>
       </c>
       <c r="C101" t="s">
         <v>856</v>
@@ -15362,7 +15362,7 @@
         <v>20521</v>
       </c>
       <c r="B102" t="n">
-        <v>129946</v>
+        <v>160653</v>
       </c>
       <c r="C102" t="s">
         <v>865</v>
@@ -15433,7 +15433,7 @@
         <v>20521</v>
       </c>
       <c r="B103" t="n">
-        <v>129947</v>
+        <v>160654</v>
       </c>
       <c r="C103" t="s">
         <v>872</v>
@@ -15504,7 +15504,7 @@
         <v>20521</v>
       </c>
       <c r="B104" t="n">
-        <v>129948</v>
+        <v>160655</v>
       </c>
       <c r="C104" t="s">
         <v>879</v>
@@ -15634,7 +15634,7 @@
         <v>20521</v>
       </c>
       <c r="B106" t="n">
-        <v>129949</v>
+        <v>160656</v>
       </c>
       <c r="C106" t="s">
         <v>898</v>
@@ -15699,7 +15699,7 @@
         <v>20521</v>
       </c>
       <c r="B107" t="n">
-        <v>129950</v>
+        <v>160657</v>
       </c>
       <c r="C107" t="s">
         <v>905</v>
@@ -15768,7 +15768,7 @@
         <v>20521</v>
       </c>
       <c r="B108" t="n">
-        <v>129951</v>
+        <v>160658</v>
       </c>
       <c r="C108" t="s">
         <v>914</v>
@@ -15835,7 +15835,7 @@
         <v>20521</v>
       </c>
       <c r="B109" t="n">
-        <v>129952</v>
+        <v>160659</v>
       </c>
       <c r="C109" t="s">
         <v>920</v>
@@ -15906,7 +15906,7 @@
         <v>20521</v>
       </c>
       <c r="B110" t="n">
-        <v>129953</v>
+        <v>160660</v>
       </c>
       <c r="C110" t="s">
         <v>929</v>
@@ -15975,7 +15975,7 @@
         <v>20521</v>
       </c>
       <c r="B111" t="n">
-        <v>129954</v>
+        <v>160661</v>
       </c>
       <c r="C111" t="s">
         <v>938</v>
@@ -16044,7 +16044,7 @@
         <v>20521</v>
       </c>
       <c r="B112" t="n">
-        <v>129955</v>
+        <v>160662</v>
       </c>
       <c r="C112" t="s">
         <v>947</v>
@@ -16115,7 +16115,7 @@
         <v>20521</v>
       </c>
       <c r="B113" t="n">
-        <v>129956</v>
+        <v>160663</v>
       </c>
       <c r="C113" t="s">
         <v>953</v>
@@ -16316,7 +16316,7 @@
         <v>20521</v>
       </c>
       <c r="B116" t="n">
-        <v>129957</v>
+        <v>160664</v>
       </c>
       <c r="C116" t="s">
         <v>978</v>
@@ -16381,7 +16381,7 @@
         <v>20521</v>
       </c>
       <c r="B117" t="n">
-        <v>129958</v>
+        <v>160665</v>
       </c>
       <c r="C117" t="s">
         <v>986</v>
@@ -16649,7 +16649,7 @@
         <v>20521</v>
       </c>
       <c r="B121" t="n">
-        <v>129959</v>
+        <v>160666</v>
       </c>
       <c r="C121" t="s">
         <v>1020</v>
@@ -16791,7 +16791,7 @@
         <v>20521</v>
       </c>
       <c r="B123" t="n">
-        <v>129960</v>
+        <v>160667</v>
       </c>
       <c r="C123" t="s">
         <v>1036</v>
@@ -16931,7 +16931,7 @@
         <v>20521</v>
       </c>
       <c r="B125" t="n">
-        <v>129961</v>
+        <v>160668</v>
       </c>
       <c r="C125" t="s">
         <v>1056</v>
@@ -16996,7 +16996,7 @@
         <v>20521</v>
       </c>
       <c r="B126" t="n">
-        <v>129962</v>
+        <v>160669</v>
       </c>
       <c r="C126" t="s">
         <v>1065</v>
@@ -17061,7 +17061,7 @@
         <v>20521</v>
       </c>
       <c r="B127" t="n">
-        <v>129963</v>
+        <v>160670</v>
       </c>
       <c r="C127" t="s">
         <v>1072</v>
@@ -17195,7 +17195,7 @@
         <v>20521</v>
       </c>
       <c r="B129" t="n">
-        <v>129964</v>
+        <v>160671</v>
       </c>
       <c r="C129" t="s">
         <v>1087</v>
@@ -17264,7 +17264,7 @@
         <v>20521</v>
       </c>
       <c r="B130" t="n">
-        <v>129965</v>
+        <v>160672</v>
       </c>
       <c r="C130" t="s">
         <v>1096</v>
@@ -17400,7 +17400,7 @@
         <v>20521</v>
       </c>
       <c r="B132" t="n">
-        <v>129966</v>
+        <v>160673</v>
       </c>
       <c r="C132" t="s">
         <v>1114</v>
@@ -17471,7 +17471,7 @@
         <v>20521</v>
       </c>
       <c r="B133" t="n">
-        <v>129967</v>
+        <v>160674</v>
       </c>
       <c r="C133" t="s">
         <v>1124</v>
@@ -17542,7 +17542,7 @@
         <v>20521</v>
       </c>
       <c r="B134" t="n">
-        <v>129968</v>
+        <v>160675</v>
       </c>
       <c r="C134" t="s">
         <v>1131</v>
@@ -17678,7 +17678,7 @@
         <v>20521</v>
       </c>
       <c r="B136" t="n">
-        <v>129969</v>
+        <v>160676</v>
       </c>
       <c r="C136" t="s">
         <v>1148</v>
@@ -17814,7 +17814,7 @@
         <v>20521</v>
       </c>
       <c r="B138" t="n">
-        <v>129970</v>
+        <v>160677</v>
       </c>
       <c r="C138" t="s">
         <v>1162</v>
@@ -17883,7 +17883,7 @@
         <v>20521</v>
       </c>
       <c r="B139" t="n">
-        <v>129971</v>
+        <v>160678</v>
       </c>
       <c r="C139" t="s">
         <v>1169</v>
@@ -17950,7 +17950,7 @@
         <v>20521</v>
       </c>
       <c r="B140" t="n">
-        <v>129972</v>
+        <v>160679</v>
       </c>
       <c r="C140" t="s">
         <v>1175</v>
@@ -18021,7 +18021,7 @@
         <v>20521</v>
       </c>
       <c r="B141" t="n">
-        <v>129973</v>
+        <v>160680</v>
       </c>
       <c r="C141" t="s">
         <v>1181</v>
@@ -18086,7 +18086,7 @@
         <v>20521</v>
       </c>
       <c r="B142" t="n">
-        <v>129974</v>
+        <v>160681</v>
       </c>
       <c r="C142" t="s">
         <v>1190</v>
@@ -18153,7 +18153,7 @@
         <v>20521</v>
       </c>
       <c r="B143" t="n">
-        <v>129975</v>
+        <v>160682</v>
       </c>
       <c r="C143" t="s">
         <v>1198</v>
@@ -18425,7 +18425,7 @@
         <v>20521</v>
       </c>
       <c r="B147" t="n">
-        <v>129976</v>
+        <v>160683</v>
       </c>
       <c r="C147" t="s">
         <v>1228</v>
@@ -18567,7 +18567,7 @@
         <v>20521</v>
       </c>
       <c r="B149" t="n">
-        <v>129977</v>
+        <v>160684</v>
       </c>
       <c r="C149" t="s">
         <v>1244</v>
@@ -18699,7 +18699,7 @@
         <v>20521</v>
       </c>
       <c r="B151" t="n">
-        <v>129978</v>
+        <v>160685</v>
       </c>
       <c r="C151" t="s">
         <v>1261</v>
@@ -18766,7 +18766,7 @@
         <v>20521</v>
       </c>
       <c r="B152" t="n">
-        <v>129979</v>
+        <v>160686</v>
       </c>
       <c r="C152" t="s">
         <v>1268</v>
@@ -18900,7 +18900,7 @@
         <v>20521</v>
       </c>
       <c r="B154" t="n">
-        <v>129980</v>
+        <v>160687</v>
       </c>
       <c r="C154" t="s">
         <v>1282</v>
@@ -18961,7 +18961,7 @@
         <v>20521</v>
       </c>
       <c r="B155" t="n">
-        <v>129981</v>
+        <v>160688</v>
       </c>
       <c r="C155" t="s">
         <v>1287</v>
@@ -19022,7 +19022,7 @@
         <v>20521</v>
       </c>
       <c r="B156" t="n">
-        <v>129982</v>
+        <v>160689</v>
       </c>
       <c r="C156" t="s">
         <v>1294</v>
@@ -19144,7 +19144,7 @@
         <v>20521</v>
       </c>
       <c r="B158" t="n">
-        <v>129983</v>
+        <v>160690</v>
       </c>
       <c r="C158" t="s">
         <v>1307</v>
@@ -19211,7 +19211,7 @@
         <v>20521</v>
       </c>
       <c r="B159" t="n">
-        <v>129984</v>
+        <v>160691</v>
       </c>
       <c r="C159" t="s">
         <v>1314</v>
@@ -19278,7 +19278,7 @@
         <v>20521</v>
       </c>
       <c r="B160" t="n">
-        <v>129985</v>
+        <v>160692</v>
       </c>
       <c r="C160" t="s">
         <v>1321</v>
@@ -19412,7 +19412,7 @@
         <v>20521</v>
       </c>
       <c r="B162" t="n">
-        <v>129986</v>
+        <v>160693</v>
       </c>
       <c r="C162" t="s">
         <v>1335</v>
@@ -19542,7 +19542,7 @@
         <v>20521</v>
       </c>
       <c r="B164" t="n">
-        <v>129987</v>
+        <v>160694</v>
       </c>
       <c r="C164" t="s">
         <v>1351</v>
@@ -19611,7 +19611,7 @@
         <v>20521</v>
       </c>
       <c r="B165" t="n">
-        <v>129988</v>
+        <v>160695</v>
       </c>
       <c r="C165" t="s">
         <v>1360</v>
@@ -19749,7 +19749,7 @@
         <v>20521</v>
       </c>
       <c r="B167" t="n">
-        <v>129989</v>
+        <v>160696</v>
       </c>
       <c r="C167" t="s">
         <v>1372</v>
@@ -19820,7 +19820,7 @@
         <v>20521</v>
       </c>
       <c r="B168" t="n">
-        <v>129990</v>
+        <v>160697</v>
       </c>
       <c r="C168" t="s">
         <v>1381</v>
@@ -19885,7 +19885,7 @@
         <v>20521</v>
       </c>
       <c r="B169" t="n">
-        <v>129991</v>
+        <v>160698</v>
       </c>
       <c r="C169" t="s">
         <v>1390</v>
@@ -20017,7 +20017,7 @@
         <v>20521</v>
       </c>
       <c r="B171" t="n">
-        <v>129992</v>
+        <v>160699</v>
       </c>
       <c r="C171" t="s">
         <v>1403</v>
@@ -20084,7 +20084,7 @@
         <v>20521</v>
       </c>
       <c r="B172" t="n">
-        <v>129993</v>
+        <v>160700</v>
       </c>
       <c r="C172" t="s">
         <v>1410</v>
@@ -20149,7 +20149,7 @@
         <v>20521</v>
       </c>
       <c r="B173" t="n">
-        <v>129994</v>
+        <v>160701</v>
       </c>
       <c r="C173" t="s">
         <v>1417</v>
@@ -20289,7 +20289,7 @@
         <v>20521</v>
       </c>
       <c r="B175" t="n">
-        <v>129995</v>
+        <v>160702</v>
       </c>
       <c r="C175" t="s">
         <v>1436</v>
@@ -20358,7 +20358,7 @@
         <v>20521</v>
       </c>
       <c r="B176" t="n">
-        <v>129996</v>
+        <v>160703</v>
       </c>
       <c r="C176" t="s">
         <v>1445</v>
@@ -20429,7 +20429,7 @@
         <v>20521</v>
       </c>
       <c r="B177" t="n">
-        <v>129997</v>
+        <v>160704</v>
       </c>
       <c r="C177" t="s">
         <v>1455</v>
@@ -20498,7 +20498,7 @@
         <v>20521</v>
       </c>
       <c r="B178" t="n">
-        <v>129998</v>
+        <v>160705</v>
       </c>
       <c r="C178" t="s">
         <v>1465</v>
@@ -20569,7 +20569,7 @@
         <v>20521</v>
       </c>
       <c r="B179" t="n">
-        <v>129999</v>
+        <v>160706</v>
       </c>
       <c r="C179" t="s">
         <v>1474</v>
@@ -20640,7 +20640,7 @@
         <v>20521</v>
       </c>
       <c r="B180" t="n">
-        <v>130000</v>
+        <v>160707</v>
       </c>
       <c r="C180" t="s">
         <v>1484</v>
@@ -20782,7 +20782,7 @@
         <v>20521</v>
       </c>
       <c r="B182" t="n">
-        <v>130001</v>
+        <v>160708</v>
       </c>
       <c r="C182" t="s">
         <v>1498</v>
@@ -20851,7 +20851,7 @@
         <v>20521</v>
       </c>
       <c r="B183" t="n">
-        <v>130002</v>
+        <v>160709</v>
       </c>
       <c r="C183" t="s">
         <v>1507</v>
@@ -20912,7 +20912,7 @@
         <v>20521</v>
       </c>
       <c r="B184" t="n">
-        <v>130003</v>
+        <v>160710</v>
       </c>
       <c r="C184" t="s">
         <v>1513</v>
@@ -20981,7 +20981,7 @@
         <v>20521</v>
       </c>
       <c r="B185" t="n">
-        <v>130004</v>
+        <v>160711</v>
       </c>
       <c r="C185" t="s">
         <v>1522</v>
@@ -21117,7 +21117,7 @@
         <v>20521</v>
       </c>
       <c r="B187" t="n">
-        <v>130005</v>
+        <v>160712</v>
       </c>
       <c r="C187" t="s">
         <v>1539</v>
@@ -21188,7 +21188,7 @@
         <v>20521</v>
       </c>
       <c r="B188" t="n">
-        <v>130006</v>
+        <v>160713</v>
       </c>
       <c r="C188" t="s">
         <v>1548</v>
@@ -21259,7 +21259,7 @@
         <v>20521</v>
       </c>
       <c r="B189" t="n">
-        <v>130007</v>
+        <v>160714</v>
       </c>
       <c r="C189" t="s">
         <v>1557</v>
@@ -21324,7 +21324,7 @@
         <v>20521</v>
       </c>
       <c r="B190" t="n">
-        <v>130008</v>
+        <v>160715</v>
       </c>
       <c r="C190" t="s">
         <v>1566</v>
@@ -21456,7 +21456,7 @@
         <v>20521</v>
       </c>
       <c r="B192" t="n">
-        <v>130009</v>
+        <v>160716</v>
       </c>
       <c r="C192" t="s">
         <v>1583</v>
@@ -21525,7 +21525,7 @@
         <v>20521</v>
       </c>
       <c r="B193" t="n">
-        <v>130010</v>
+        <v>160717</v>
       </c>
       <c r="C193" t="s">
         <v>1593</v>
@@ -21594,7 +21594,7 @@
         <v>20521</v>
       </c>
       <c r="B194" t="n">
-        <v>130011</v>
+        <v>160718</v>
       </c>
       <c r="C194" t="s">
         <v>1602</v>
@@ -21665,7 +21665,7 @@
         <v>20521</v>
       </c>
       <c r="B195" t="n">
-        <v>130012</v>
+        <v>160719</v>
       </c>
       <c r="C195" t="s">
         <v>1611</v>
@@ -21730,7 +21730,7 @@
         <v>20521</v>
       </c>
       <c r="B196" t="n">
-        <v>130013</v>
+        <v>160720</v>
       </c>
       <c r="C196" t="s">
         <v>1618</v>
@@ -21801,7 +21801,7 @@
         <v>20521</v>
       </c>
       <c r="B197" t="n">
-        <v>130014</v>
+        <v>160721</v>
       </c>
       <c r="C197" t="s">
         <v>1625</v>
@@ -21872,7 +21872,7 @@
         <v>20521</v>
       </c>
       <c r="B198" t="n">
-        <v>130015</v>
+        <v>160722</v>
       </c>
       <c r="C198" t="s">
         <v>1634</v>
@@ -22012,7 +22012,7 @@
         <v>20521</v>
       </c>
       <c r="B200" t="n">
-        <v>130016</v>
+        <v>160723</v>
       </c>
       <c r="C200" t="s">
         <v>1654</v>
@@ -22079,7 +22079,7 @@
         <v>20521</v>
       </c>
       <c r="B201" t="n">
-        <v>130017</v>
+        <v>160724</v>
       </c>
       <c r="C201" t="s">
         <v>1660</v>
@@ -22150,7 +22150,7 @@
         <v>20521</v>
       </c>
       <c r="B202" t="n">
-        <v>130018</v>
+        <v>160725</v>
       </c>
       <c r="C202" t="s">
         <v>1669</v>
@@ -22221,7 +22221,7 @@
         <v>20521</v>
       </c>
       <c r="B203" t="n">
-        <v>130019</v>
+        <v>160726</v>
       </c>
       <c r="C203" t="s">
         <v>1678</v>
@@ -22290,7 +22290,7 @@
         <v>20521</v>
       </c>
       <c r="B204" t="n">
-        <v>130020</v>
+        <v>160727</v>
       </c>
       <c r="C204" t="s">
         <v>1688</v>
@@ -22361,7 +22361,7 @@
         <v>20521</v>
       </c>
       <c r="B205" t="n">
-        <v>130021</v>
+        <v>160728</v>
       </c>
       <c r="C205" t="s">
         <v>1697</v>
@@ -22432,7 +22432,7 @@
         <v>20521</v>
       </c>
       <c r="B206" t="n">
-        <v>130022</v>
+        <v>160729</v>
       </c>
       <c r="C206" t="s">
         <v>1704</v>
@@ -22641,7 +22641,7 @@
         <v>20521</v>
       </c>
       <c r="B209" t="n">
-        <v>130023</v>
+        <v>160730</v>
       </c>
       <c r="C209" t="s">
         <v>1731</v>
@@ -22712,7 +22712,7 @@
         <v>20521</v>
       </c>
       <c r="B210" t="n">
-        <v>130024</v>
+        <v>160731</v>
       </c>
       <c r="C210" t="s">
         <v>1740</v>
@@ -22783,7 +22783,7 @@
         <v>20521</v>
       </c>
       <c r="B211" t="n">
-        <v>130025</v>
+        <v>160732</v>
       </c>
       <c r="C211" t="s">
         <v>1746</v>
@@ -22848,7 +22848,7 @@
         <v>20521</v>
       </c>
       <c r="B212" t="n">
-        <v>130026</v>
+        <v>160733</v>
       </c>
       <c r="C212" t="s">
         <v>1755</v>
@@ -22988,7 +22988,7 @@
         <v>20521</v>
       </c>
       <c r="B214" t="n">
-        <v>130027</v>
+        <v>160734</v>
       </c>
       <c r="C214" t="s">
         <v>1772</v>
@@ -23057,7 +23057,7 @@
         <v>20521</v>
       </c>
       <c r="B215" t="n">
-        <v>130028</v>
+        <v>160735</v>
       </c>
       <c r="C215" t="s">
         <v>1782</v>
@@ -23128,7 +23128,7 @@
         <v>20521</v>
       </c>
       <c r="B216" t="n">
-        <v>130029</v>
+        <v>160736</v>
       </c>
       <c r="C216" t="s">
         <v>1789</v>
@@ -23274,7 +23274,7 @@
         <v>20521</v>
       </c>
       <c r="B218" t="n">
-        <v>130030</v>
+        <v>160737</v>
       </c>
       <c r="C218" t="s">
         <v>1804</v>
@@ -23349,7 +23349,7 @@
         <v>20521</v>
       </c>
       <c r="B219" t="n">
-        <v>130031</v>
+        <v>160738</v>
       </c>
       <c r="C219" t="s">
         <v>1811</v>
@@ -23424,7 +23424,7 @@
         <v>20521</v>
       </c>
       <c r="B220" t="n">
-        <v>130032</v>
+        <v>160739</v>
       </c>
       <c r="C220" t="s">
         <v>1818</v>
@@ -23495,7 +23495,7 @@
         <v>20521</v>
       </c>
       <c r="B221" t="n">
-        <v>130033</v>
+        <v>160740</v>
       </c>
       <c r="C221" t="s">
         <v>1825</v>
@@ -23570,7 +23570,7 @@
         <v>20521</v>
       </c>
       <c r="B222" t="n">
-        <v>130034</v>
+        <v>160741</v>
       </c>
       <c r="C222" t="s">
         <v>1834</v>
@@ -23645,7 +23645,7 @@
         <v>20521</v>
       </c>
       <c r="B223" t="n">
-        <v>130035</v>
+        <v>160742</v>
       </c>
       <c r="C223" t="s">
         <v>1842</v>
@@ -23775,7 +23775,7 @@
         <v>20521</v>
       </c>
       <c r="B225" t="n">
-        <v>130036</v>
+        <v>160743</v>
       </c>
       <c r="C225" t="s">
         <v>1856</v>
@@ -23850,7 +23850,7 @@
         <v>20521</v>
       </c>
       <c r="B226" t="n">
-        <v>130037</v>
+        <v>160744</v>
       </c>
       <c r="C226" t="s">
         <v>1863</v>
@@ -23921,7 +23921,7 @@
         <v>20521</v>
       </c>
       <c r="B227" t="n">
-        <v>130038</v>
+        <v>160745</v>
       </c>
       <c r="C227" t="s">
         <v>1870</v>
@@ -23992,7 +23992,7 @@
         <v>20521</v>
       </c>
       <c r="B228" t="n">
-        <v>130039</v>
+        <v>160746</v>
       </c>
       <c r="C228" t="s">
         <v>1877</v>
@@ -24067,7 +24067,7 @@
         <v>20521</v>
       </c>
       <c r="B229" t="n">
-        <v>130040</v>
+        <v>160747</v>
       </c>
       <c r="C229" t="s">
         <v>1887</v>
@@ -24142,7 +24142,7 @@
         <v>20521</v>
       </c>
       <c r="B230" t="n">
-        <v>130041</v>
+        <v>160748</v>
       </c>
       <c r="C230" t="s">
         <v>1894</v>
@@ -24213,7 +24213,7 @@
         <v>20521</v>
       </c>
       <c r="B231" t="n">
-        <v>130042</v>
+        <v>160749</v>
       </c>
       <c r="C231" t="s">
         <v>1903</v>
@@ -24288,7 +24288,7 @@
         <v>20521</v>
       </c>
       <c r="B232" t="n">
-        <v>130043</v>
+        <v>160750</v>
       </c>
       <c r="C232" t="s">
         <v>1911</v>
@@ -24359,7 +24359,7 @@
         <v>20521</v>
       </c>
       <c r="B233" t="n">
-        <v>130044</v>
+        <v>160751</v>
       </c>
       <c r="C233" t="s">
         <v>1918</v>
@@ -24420,7 +24420,7 @@
         <v>20521</v>
       </c>
       <c r="B234" t="n">
-        <v>130045</v>
+        <v>160752</v>
       </c>
       <c r="C234" t="s">
         <v>1924</v>
@@ -24495,7 +24495,7 @@
         <v>20521</v>
       </c>
       <c r="B235" t="n">
-        <v>130046</v>
+        <v>160753</v>
       </c>
       <c r="C235" t="s">
         <v>1934</v>
@@ -24556,7 +24556,7 @@
         <v>20521</v>
       </c>
       <c r="B236" t="n">
-        <v>130047</v>
+        <v>160754</v>
       </c>
       <c r="C236" t="s">
         <v>1942</v>
@@ -24631,7 +24631,7 @@
         <v>20521</v>
       </c>
       <c r="B237" t="n">
-        <v>130048</v>
+        <v>160755</v>
       </c>
       <c r="C237" t="s">
         <v>1949</v>
@@ -24702,7 +24702,7 @@
         <v>20521</v>
       </c>
       <c r="B238" t="n">
-        <v>130049</v>
+        <v>160756</v>
       </c>
       <c r="C238" t="s">
         <v>1956</v>
@@ -24852,7 +24852,7 @@
         <v>20521</v>
       </c>
       <c r="B240" t="n">
-        <v>130050</v>
+        <v>160757</v>
       </c>
       <c r="C240" t="s">
         <v>1970</v>
@@ -24998,7 +24998,7 @@
         <v>20521</v>
       </c>
       <c r="B242" t="n">
-        <v>130051</v>
+        <v>160758</v>
       </c>
       <c r="C242" t="s">
         <v>1985</v>
@@ -25205,7 +25205,7 @@
         <v>20521</v>
       </c>
       <c r="B245" t="n">
-        <v>130052</v>
+        <v>160759</v>
       </c>
       <c r="C245" t="s">
         <v>2006</v>
@@ -25276,7 +25276,7 @@
         <v>20521</v>
       </c>
       <c r="B246" t="n">
-        <v>130053</v>
+        <v>160760</v>
       </c>
       <c r="C246" t="s">
         <v>2013</v>
@@ -25414,7 +25414,7 @@
         <v>20521</v>
       </c>
       <c r="B248" t="n">
-        <v>130054</v>
+        <v>160761</v>
       </c>
       <c r="C248" t="s">
         <v>2026</v>
@@ -25552,7 +25552,7 @@
         <v>20521</v>
       </c>
       <c r="B250" t="n">
-        <v>130055</v>
+        <v>160762</v>
       </c>
       <c r="C250" t="s">
         <v>2041</v>
@@ -25619,7 +25619,7 @@
         <v>20521</v>
       </c>
       <c r="B251" t="n">
-        <v>130056</v>
+        <v>160763</v>
       </c>
       <c r="C251" t="s">
         <v>2047</v>
@@ -25690,7 +25690,7 @@
         <v>20521</v>
       </c>
       <c r="B252" t="n">
-        <v>130057</v>
+        <v>160764</v>
       </c>
       <c r="C252" t="s">
         <v>2054</v>
@@ -25761,7 +25761,7 @@
         <v>20521</v>
       </c>
       <c r="B253" t="n">
-        <v>130058</v>
+        <v>160765</v>
       </c>
       <c r="C253" t="s">
         <v>2060</v>
@@ -25903,7 +25903,7 @@
         <v>20521</v>
       </c>
       <c r="B255" t="n">
-        <v>130059</v>
+        <v>160766</v>
       </c>
       <c r="C255" t="s">
         <v>2074</v>
@@ -25974,7 +25974,7 @@
         <v>20521</v>
       </c>
       <c r="B256" t="n">
-        <v>130060</v>
+        <v>160767</v>
       </c>
       <c r="C256" t="s">
         <v>2081</v>
@@ -26041,7 +26041,7 @@
         <v>20521</v>
       </c>
       <c r="B257" t="n">
-        <v>130061</v>
+        <v>160768</v>
       </c>
       <c r="C257" t="s">
         <v>2088</v>
@@ -26108,7 +26108,7 @@
         <v>20521</v>
       </c>
       <c r="B258" t="n">
-        <v>130062</v>
+        <v>160769</v>
       </c>
       <c r="C258" t="s">
         <v>2095</v>
@@ -26179,7 +26179,7 @@
         <v>20521</v>
       </c>
       <c r="B259" t="n">
-        <v>130063</v>
+        <v>160770</v>
       </c>
       <c r="C259" t="s">
         <v>2103</v>
@@ -26250,7 +26250,7 @@
         <v>20521</v>
       </c>
       <c r="B260" t="n">
-        <v>130064</v>
+        <v>160771</v>
       </c>
       <c r="C260" t="s">
         <v>2110</v>
@@ -26321,7 +26321,7 @@
         <v>20521</v>
       </c>
       <c r="B261" t="n">
-        <v>130065</v>
+        <v>160772</v>
       </c>
       <c r="C261" t="s">
         <v>2117</v>
@@ -26463,7 +26463,7 @@
         <v>20521</v>
       </c>
       <c r="B263" t="n">
-        <v>130066</v>
+        <v>129944</v>
       </c>
       <c r="C263" t="s">
         <v>2132</v>
@@ -26534,7 +26534,7 @@
         <v>20521</v>
       </c>
       <c r="B264" t="n">
-        <v>130065</v>
+        <v>129944</v>
       </c>
       <c r="C264" t="s">
         <v>2132</v>
@@ -26605,7 +26605,7 @@
         <v>20521</v>
       </c>
       <c r="B265" t="n">
-        <v>130067</v>
+        <v>160773</v>
       </c>
       <c r="C265" t="s">
         <v>2143</v>
@@ -26672,7 +26672,7 @@
         <v>20521</v>
       </c>
       <c r="B266" t="n">
-        <v>130068</v>
+        <v>160774</v>
       </c>
       <c r="C266" t="s">
         <v>2150</v>
@@ -26743,7 +26743,7 @@
         <v>20521</v>
       </c>
       <c r="B267" t="n">
-        <v>130069</v>
+        <v>160775</v>
       </c>
       <c r="C267" t="s">
         <v>2156</v>
@@ -26885,7 +26885,7 @@
         <v>20521</v>
       </c>
       <c r="B269" t="n">
-        <v>130070</v>
+        <v>160776</v>
       </c>
       <c r="C269" t="s">
         <v>2168</v>
@@ -26946,7 +26946,7 @@
         <v>20521</v>
       </c>
       <c r="B270" t="n">
-        <v>130071</v>
+        <v>160777</v>
       </c>
       <c r="C270" t="s">
         <v>2175</v>
@@ -27021,7 +27021,7 @@
         <v>20521</v>
       </c>
       <c r="B271" t="n">
-        <v>130072</v>
+        <v>160778</v>
       </c>
       <c r="C271" t="s">
         <v>2185</v>
@@ -27092,7 +27092,7 @@
         <v>20521</v>
       </c>
       <c r="B272" t="n">
-        <v>130073</v>
+        <v>160779</v>
       </c>
       <c r="C272" t="s">
         <v>2192</v>
@@ -27163,7 +27163,7 @@
         <v>20521</v>
       </c>
       <c r="B273" t="n">
-        <v>130074</v>
+        <v>160780</v>
       </c>
       <c r="C273" t="s">
         <v>2201</v>
@@ -27234,7 +27234,7 @@
         <v>20521</v>
       </c>
       <c r="B274" t="n">
-        <v>130075</v>
+        <v>160781</v>
       </c>
       <c r="C274" t="s">
         <v>2209</v>
@@ -27301,7 +27301,7 @@
         <v>20521</v>
       </c>
       <c r="B275" t="n">
-        <v>130076</v>
+        <v>160782</v>
       </c>
       <c r="C275" t="s">
         <v>2216</v>
@@ -27372,7 +27372,7 @@
         <v>20521</v>
       </c>
       <c r="B276" t="n">
-        <v>130077</v>
+        <v>160783</v>
       </c>
       <c r="C276" t="s">
         <v>2225</v>
@@ -27514,7 +27514,7 @@
         <v>20521</v>
       </c>
       <c r="B278" t="n">
-        <v>130078</v>
+        <v>160784</v>
       </c>
       <c r="C278" t="s">
         <v>2237</v>
@@ -27589,7 +27589,7 @@
         <v>20521</v>
       </c>
       <c r="B279" t="n">
-        <v>130079</v>
+        <v>160785</v>
       </c>
       <c r="C279" t="s">
         <v>2245</v>
@@ -27664,7 +27664,7 @@
         <v>20521</v>
       </c>
       <c r="B280" t="n">
-        <v>130080</v>
+        <v>160786</v>
       </c>
       <c r="C280" t="s">
         <v>2253</v>
@@ -27735,7 +27735,7 @@
         <v>20521</v>
       </c>
       <c r="B281" t="n">
-        <v>130081</v>
+        <v>160787</v>
       </c>
       <c r="C281" t="s">
         <v>2260</v>
@@ -27810,7 +27810,7 @@
         <v>20521</v>
       </c>
       <c r="B282" t="n">
-        <v>130082</v>
+        <v>160788</v>
       </c>
       <c r="C282" t="s">
         <v>2268</v>
@@ -27885,7 +27885,7 @@
         <v>20521</v>
       </c>
       <c r="B283" t="n">
-        <v>130083</v>
+        <v>160789</v>
       </c>
       <c r="C283" t="s">
         <v>2276</v>
@@ -27960,7 +27960,7 @@
         <v>20521</v>
       </c>
       <c r="B284" t="n">
-        <v>130084</v>
+        <v>160790</v>
       </c>
       <c r="C284" t="s">
         <v>2285</v>
@@ -28027,7 +28027,7 @@
         <v>20521</v>
       </c>
       <c r="B285" t="n">
-        <v>130085</v>
+        <v>160791</v>
       </c>
       <c r="C285" t="s">
         <v>2292</v>
@@ -28102,7 +28102,7 @@
         <v>20521</v>
       </c>
       <c r="B286" t="n">
-        <v>130086</v>
+        <v>160792</v>
       </c>
       <c r="C286" t="s">
         <v>2301</v>
@@ -28177,7 +28177,7 @@
         <v>20521</v>
       </c>
       <c r="B287" t="n">
-        <v>130087</v>
+        <v>160793</v>
       </c>
       <c r="C287" t="s">
         <v>2310</v>
@@ -28252,7 +28252,7 @@
         <v>20521</v>
       </c>
       <c r="B288" t="n">
-        <v>130088</v>
+        <v>160794</v>
       </c>
       <c r="C288" t="s">
         <v>2320</v>
@@ -28327,7 +28327,7 @@
         <v>20521</v>
       </c>
       <c r="B289" t="n">
-        <v>130089</v>
+        <v>160795</v>
       </c>
       <c r="C289" t="s">
         <v>2330</v>
@@ -28402,7 +28402,7 @@
         <v>20521</v>
       </c>
       <c r="B290" t="n">
-        <v>130090</v>
+        <v>160796</v>
       </c>
       <c r="C290" t="s">
         <v>2340</v>
@@ -28473,7 +28473,7 @@
         <v>20521</v>
       </c>
       <c r="B291" t="n">
-        <v>130091</v>
+        <v>160797</v>
       </c>
       <c r="C291" t="s">
         <v>2348</v>
@@ -28544,7 +28544,7 @@
         <v>20521</v>
       </c>
       <c r="B292" t="n">
-        <v>130092</v>
+        <v>160798</v>
       </c>
       <c r="C292" t="s">
         <v>2356</v>
@@ -28615,7 +28615,7 @@
         <v>20521</v>
       </c>
       <c r="B293" t="n">
-        <v>130093</v>
+        <v>160799</v>
       </c>
       <c r="C293" t="s">
         <v>2364</v>
@@ -28686,7 +28686,7 @@
         <v>20521</v>
       </c>
       <c r="B294" t="n">
-        <v>130094</v>
+        <v>160800</v>
       </c>
       <c r="C294" t="s">
         <v>2372</v>
@@ -28757,7 +28757,7 @@
         <v>20521</v>
       </c>
       <c r="B295" t="n">
-        <v>130095</v>
+        <v>160801</v>
       </c>
       <c r="C295" t="s">
         <v>2380</v>
@@ -28828,7 +28828,7 @@
         <v>20521</v>
       </c>
       <c r="B296" t="n">
-        <v>130096</v>
+        <v>160802</v>
       </c>
       <c r="C296" t="s">
         <v>2387</v>
@@ -28899,7 +28899,7 @@
         <v>20521</v>
       </c>
       <c r="B297" t="n">
-        <v>130097</v>
+        <v>160803</v>
       </c>
       <c r="C297" t="s">
         <v>2394</v>
@@ -28966,7 +28966,7 @@
         <v>20521</v>
       </c>
       <c r="B298" t="n">
-        <v>130098</v>
+        <v>160804</v>
       </c>
       <c r="C298" t="s">
         <v>2401</v>
@@ -29023,7 +29023,7 @@
         <v>20521</v>
       </c>
       <c r="B299" t="n">
-        <v>130099</v>
+        <v>160805</v>
       </c>
       <c r="C299" t="s">
         <v>2408</v>
@@ -29094,7 +29094,7 @@
         <v>20521</v>
       </c>
       <c r="B300" t="n">
-        <v>130100</v>
+        <v>160806</v>
       </c>
       <c r="C300" t="s">
         <v>2416</v>
@@ -29165,7 +29165,7 @@
         <v>20521</v>
       </c>
       <c r="B301" t="n">
-        <v>130101</v>
+        <v>160807</v>
       </c>
       <c r="C301" t="s">
         <v>2423</v>
@@ -29236,7 +29236,7 @@
         <v>20521</v>
       </c>
       <c r="B302" t="n">
-        <v>130102</v>
+        <v>160808</v>
       </c>
       <c r="C302" t="s">
         <v>2431</v>
@@ -29307,7 +29307,7 @@
         <v>20521</v>
       </c>
       <c r="B303" t="n">
-        <v>130103</v>
+        <v>160809</v>
       </c>
       <c r="C303" t="s">
         <v>2438</v>
@@ -29364,7 +29364,7 @@
         <v>20521</v>
       </c>
       <c r="B304" t="n">
-        <v>130104</v>
+        <v>160810</v>
       </c>
       <c r="C304" t="s">
         <v>2445</v>
@@ -29435,7 +29435,7 @@
         <v>20521</v>
       </c>
       <c r="B305" t="n">
-        <v>130105</v>
+        <v>160811</v>
       </c>
       <c r="C305" t="s">
         <v>2453</v>
@@ -29752,7 +29752,7 @@
         <v>20521</v>
       </c>
       <c r="B310" t="n">
-        <v>130106</v>
+        <v>160812</v>
       </c>
       <c r="C310" t="s">
         <v>2483</v>
@@ -29821,7 +29821,7 @@
         <v>20521</v>
       </c>
       <c r="B311" t="n">
-        <v>130107</v>
+        <v>160813</v>
       </c>
       <c r="C311" t="s">
         <v>2491</v>
@@ -29951,7 +29951,7 @@
         <v>20521</v>
       </c>
       <c r="B313" t="n">
-        <v>130108</v>
+        <v>160814</v>
       </c>
       <c r="C313" t="s">
         <v>2503</v>
@@ -30073,7 +30073,7 @@
         <v>20521</v>
       </c>
       <c r="B315" t="n">
-        <v>130109</v>
+        <v>160815</v>
       </c>
       <c r="C315" t="s">
         <v>2516</v>
@@ -30325,7 +30325,7 @@
         <v>20521</v>
       </c>
       <c r="B319" t="n">
-        <v>130110</v>
+        <v>160816</v>
       </c>
       <c r="C319" t="s">
         <v>2540</v>
@@ -30439,7 +30439,7 @@
         <v>20521</v>
       </c>
       <c r="B321" t="n">
-        <v>130111</v>
+        <v>160817</v>
       </c>
       <c r="C321" t="s">
         <v>2553</v>
@@ -30553,7 +30553,7 @@
         <v>20521</v>
       </c>
       <c r="B323" t="n">
-        <v>130112</v>
+        <v>160818</v>
       </c>
       <c r="C323" t="s">
         <v>2565</v>
@@ -30610,7 +30610,7 @@
         <v>20521</v>
       </c>
       <c r="B324" t="n">
-        <v>130113</v>
+        <v>160819</v>
       </c>
       <c r="C324" t="s">
         <v>2571</v>
@@ -30667,7 +30667,7 @@
         <v>20521</v>
       </c>
       <c r="B325" t="n">
-        <v>130114</v>
+        <v>160820</v>
       </c>
       <c r="C325" t="s">
         <v>2577</v>
